--- a/tracking/tracking.xlsx
+++ b/tracking/tracking.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzdy1994/Desktop/Kaggle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzdy1994/Desktop/Kaggle/Kaggle-Safe-Driver-Prediction/tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="460" windowWidth="20680" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10120" yWindow="460" windowWidth="20680" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="eta = 0.01" sheetId="1" r:id="rId1"/>
-    <sheet name="tunned" sheetId="2" r:id="rId2"/>
+    <sheet name="xgboost baseline eta = 0.01" sheetId="1" r:id="rId1"/>
+    <sheet name="light gbm tuning" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Round</t>
   </si>
@@ -39,103 +39,25 @@
     <t>Test-gini</t>
   </si>
   <si>
-    <t>[1]</t>
+    <t>no</t>
   </si>
   <si>
-    <t>train-Gini:0.218542+0.003741</t>
+    <t>lr</t>
   </si>
   <si>
-    <t xml:space="preserve">test-Gini:0.207627+0.002553 </t>
+    <t>max_depth</t>
   </si>
   <si>
-    <t>[6]</t>
+    <t>num_leaves</t>
   </si>
   <si>
-    <t>train-Gini:0.243542+0.001619</t>
+    <t>best iter</t>
   </si>
   <si>
-    <t xml:space="preserve">test-Gini:0.228108+0.003434 </t>
+    <t>best gini</t>
   </si>
   <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.250146+0.001503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.232332+0.003302 </t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.254695+0.000604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.233974+0.002909 </t>
-  </si>
-  <si>
-    <t>[21]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.257359+0.000781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.235068+0.002716 </t>
-  </si>
-  <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.260376+0.001320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.236039+0.002419 </t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.262402+0.001347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.236532+0.002093 </t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.265321+0.001024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.237627+0.002091 </t>
-  </si>
-  <si>
-    <t>[41]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.267571+0.001272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.238685+0.002133 </t>
-  </si>
-  <si>
-    <t>[46]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.270121+0.001499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.239997+0.002008 </t>
-  </si>
-  <si>
-    <t>[51]</t>
-  </si>
-  <si>
-    <t>train-Gini:0.272010+0.001164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-Gini:0.240975+0.001855 </t>
+    <t>min_data_in_leaf</t>
   </si>
 </sst>
 </file>
@@ -151,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,8 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eta = 0.01'!$B$1</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -266,7 +196,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'eta = 0.01'!$A$2:$A$202</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$A$2:$A$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -878,7 +808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eta = 0.01'!$B$2:$B$202</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$B$2:$B$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -1495,7 +1425,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eta = 0.01'!$C$1</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,7 +1448,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'eta = 0.01'!$A$2:$A$202</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$A$2:$A$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -2130,7 +2060,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eta = 0.01'!$C$2:$C$202</c:f>
+              <c:f>'xgboost baseline eta = 0.01'!$C$2:$C$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -2751,11 +2681,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-655124960"/>
-        <c:axId val="-655261152"/>
+        <c:axId val="37779424"/>
+        <c:axId val="37783904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-655124960"/>
+        <c:axId val="37779424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-655261152"/>
+        <c:crossAx val="37783904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2806,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-655261152"/>
+        <c:axId val="37783904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -2857,7 +2787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-655124960"/>
+        <c:crossAx val="37779424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6032,17 +5962,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6052,115 +5980,431 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>0.27579999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1024</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>723</v>
+      </c>
+      <c r="G3">
+        <v>0.27756629999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>896</v>
+      </c>
+      <c r="G4">
+        <v>0.27992889999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1024</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1099</v>
+      </c>
+      <c r="G5">
+        <v>0.27949190000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>512</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>916</v>
+      </c>
+      <c r="G6">
+        <v>0.2786266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>929</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.28042709999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>828</v>
+      </c>
+      <c r="G8">
+        <v>0.2801691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>783</v>
+      </c>
+      <c r="G9">
+        <v>0.27848630000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>0.28018189999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>1054</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.28129389999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>1014</v>
+      </c>
+      <c r="G12">
+        <v>0.27956229999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>1027</v>
+      </c>
+      <c r="G13">
+        <v>0.28094459999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>1216</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.282941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B15">
+        <v>0.01</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>1176</v>
+      </c>
+      <c r="G15">
+        <v>0.28135520000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>1093</v>
+      </c>
+      <c r="G16">
+        <v>0.28226259999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>1323</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.28295039999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B18">
+        <v>0.01</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>3000</v>
+      </c>
+      <c r="F18">
+        <v>1367</v>
+      </c>
+      <c r="G18">
+        <v>0.28251100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="B19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>1995</v>
+      </c>
+      <c r="G19">
+        <v>0.28178910000000001</v>
       </c>
     </row>
   </sheetData>
